--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STD\uni\Vсеместр\Системний аналіз та теорія прийняття рішень\SATPR_Karpenko\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FAD9DF-0248-4529-845B-3564898627C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F43BBE-8934-4296-BF0C-CC9104DAD7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-75" yWindow="30" windowWidth="19365" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>K1</t>
   </si>
@@ -129,7 +129,10 @@
     <t>За критерієм Гурвіца</t>
   </si>
   <si>
-    <t>A2, A5</t>
+    <t>Матриця коефіцієнтів довіри</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F94"/>
+  <dimension ref="B2:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,47 +1248,216 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <f>1-C70</f>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ref="D88:F88" si="11">1-D70</f>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="11"/>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ref="C89:F92" si="12">1-C71</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="12"/>
+        <v>0.37500000000000011</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="12"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="12"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="12"/>
+        <v>0.8125</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="12"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="12"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="12"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="12"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <f>MAX(C88:F88)*C$98+MIN(C88:F88)*(1-C$98)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ref="C100:C103" si="13">MAX(C89:F89)*C$98+MIN(C89:F89)*(1-C$98)</f>
+        <v>0.51083591331269351</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="13"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="13"/>
+        <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="C103">
+        <f t="shared" si="13"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>20</v>
       </c>
-      <c r="C94">
-        <f>MAX(C88:C92)</f>
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C105">
+        <f>MAX(C99:C103)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E105" t="s">
         <v>25</v>
       </c>
-      <c r="F94" t="s">
-        <v>34</v>
+      <c r="F105" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
